--- a/nextjs-dashboard/public/Book1.xlsx
+++ b/nextjs-dashboard/public/Book1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashank\Desktop\f1 1\nextjs-dashboard\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3550C0-CACA-4D80-96EB-4CC240FE80DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C01C2C-C25F-4E16-AEA8-DA7D903B981C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="20670" windowHeight="11070" xr2:uid="{A377FA74-63E3-478F-8A34-0A5BDDD7683B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A377FA74-63E3-478F-8A34-0A5BDDD7683B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$108</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -349,7 +349,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85E7F920-AE01-4AE8-A7C2-723D576DA895}" name="Table1" displayName="Table1" ref="A1:H109" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85E7F920-AE01-4AE8-A7C2-723D576DA895}" name="Table1" displayName="Table1" ref="A1:H108" totalsRowShown="0" headerRowDxfId="1">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A0E42F8E-E02D-456F-A8E4-FAFEAEE518DC}" name="Name"/>
     <tableColumn id="2" xr3:uid="{0BCFC1D8-DC7C-4D72-83AB-31FB0F3DB169}" name="Car model"/>
@@ -661,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686ACA56-8B9F-40B9-9505-4C562B51FB0E}">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="N14" sqref="A1:XFD1048576"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,2820 +707,2794 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>12.5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
       <c r="F3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="H5" s="1">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>16</v>
-      </c>
       <c r="G6">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="H6" s="1">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="H7" s="1">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
         <v>13</v>
       </c>
-      <c r="F8">
-        <v>18</v>
-      </c>
-      <c r="G8">
-        <v>15.5</v>
-      </c>
       <c r="H8" s="1">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="H9" s="1">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="H10" s="1">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="H11" s="1">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F12">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G12">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="H12" s="1">
-        <v>67</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G13">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="H13" s="1">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F14">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G14">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="H14" s="1">
-        <v>78</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
       </c>
       <c r="E15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F15">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G15">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H15" s="1">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G16">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H16" s="1">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H17" s="1">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E18">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>19</v>
-      </c>
-      <c r="G18">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
       </c>
       <c r="H18" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F19">
-        <v>6</v>
-      </c>
-      <c r="G19" t="s">
-        <v>72</v>
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F20">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G20">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="H20" s="1">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G21">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="H21" s="1">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E22">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>23</v>
-      </c>
-      <c r="G22">
-        <v>19.5</v>
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
       </c>
       <c r="H22" s="1">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
-        <v>72</v>
+        <v>24</v>
+      </c>
+      <c r="G23">
+        <v>21</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E24">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>24</v>
-      </c>
-      <c r="G24">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>72</v>
       </c>
       <c r="H24" s="1">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>72</v>
+        <v>19</v>
+      </c>
+      <c r="G25">
+        <v>16</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F26">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G26">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H26" s="1">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
       </c>
       <c r="E27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G27">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H27" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F28">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G28">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H28" s="1">
-        <v>64</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
       </c>
       <c r="E29">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F29">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G29">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="H29" s="1">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
         <v>19</v>
       </c>
       <c r="E30">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F30">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G30">
-        <v>16.5</v>
+        <v>21.5</v>
       </c>
       <c r="H30" s="1">
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E31">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F31">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G31">
-        <v>21.5</v>
+        <v>15</v>
       </c>
       <c r="H31" s="1">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G32">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="H32" s="1">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33">
         <v>13</v>
       </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33">
-        <v>10</v>
-      </c>
       <c r="F33">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G33">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="H33" s="1">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G34">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H34" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
       </c>
       <c r="E35">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G35">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="H35" s="1">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36">
+        <v>14</v>
+      </c>
+      <c r="F36">
         <v>21</v>
       </c>
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36">
-        <v>11</v>
-      </c>
-      <c r="F36">
-        <v>16</v>
-      </c>
       <c r="G36">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="H36" s="1">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
       </c>
       <c r="E37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G37">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="H37" s="1">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>16</v>
+      </c>
+      <c r="G38">
         <v>13</v>
       </c>
-      <c r="F38">
-        <v>18</v>
-      </c>
-      <c r="G38">
-        <v>15.5</v>
-      </c>
       <c r="H38" s="1">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F39">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G39">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="H39" s="1">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E40">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F40">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G40">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="H40" s="1">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E41">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F41">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G41">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="H41" s="1">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F42">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G42">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="H42" s="1">
-        <v>67</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E43">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F43">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G43">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="H43" s="1">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E44">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F44">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G44">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="H44" s="1">
-        <v>78</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
       </c>
       <c r="E45">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F45">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G45">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H45" s="1">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E46">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F46">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G46">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H46" s="1">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E47">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F47">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G47">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H47" s="1">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E48">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F48">
-        <v>19</v>
-      </c>
-      <c r="G48">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>72</v>
       </c>
       <c r="H48" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F49">
-        <v>3</v>
-      </c>
-      <c r="G49" t="s">
-        <v>72</v>
+        <v>18</v>
+      </c>
+      <c r="G49">
+        <v>15</v>
       </c>
       <c r="H49" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E50">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F50">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G50">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="H50" s="1">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
       </c>
       <c r="E51">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F51">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G51">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="H51" s="1">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E52">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F52">
-        <v>23</v>
-      </c>
-      <c r="G52">
-        <v>19.5</v>
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
       </c>
       <c r="H52" s="1">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E53">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F53">
-        <v>10</v>
-      </c>
-      <c r="G53" t="s">
-        <v>72</v>
+        <v>24</v>
+      </c>
+      <c r="G53">
+        <v>21</v>
       </c>
       <c r="H53" s="1">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E54">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>24</v>
-      </c>
-      <c r="G54">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>72</v>
       </c>
       <c r="H54" s="1">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F55">
-        <v>2</v>
-      </c>
-      <c r="G55" t="s">
-        <v>72</v>
+        <v>19</v>
+      </c>
+      <c r="G55">
+        <v>16</v>
       </c>
       <c r="H55" s="1">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
         <v>15</v>
       </c>
       <c r="E56">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F56">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G56">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H56" s="1">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
       </c>
       <c r="E57">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F57">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G57">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H57" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F58">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G58">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H58" s="1">
-        <v>64</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
         <v>19</v>
       </c>
       <c r="E59">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F59">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G59">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="H59" s="1">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
         <v>19</v>
       </c>
       <c r="E60">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F60">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G60">
-        <v>16.5</v>
+        <v>21.5</v>
       </c>
       <c r="H60" s="1">
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E61">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F61">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G61">
-        <v>21.5</v>
+        <v>15</v>
       </c>
       <c r="H61" s="1">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
       </c>
       <c r="E62">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F62">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G62">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="H62" s="1">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63">
         <v>13</v>
       </c>
-      <c r="C63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63">
-        <v>10</v>
-      </c>
       <c r="F63">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G63">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="H63" s="1">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E64">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F64">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G64">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H64" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
       </c>
       <c r="E65">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F65">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G65">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="H65" s="1">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66">
+        <v>14</v>
+      </c>
+      <c r="F66">
         <v>21</v>
       </c>
-      <c r="B66" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66">
-        <v>11</v>
-      </c>
-      <c r="F66">
-        <v>16</v>
-      </c>
       <c r="G66">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="H66" s="1">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
         <v>19</v>
       </c>
       <c r="E67">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F67">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G67">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="H67" s="1">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E68">
+        <v>10</v>
+      </c>
+      <c r="F68">
+        <v>16</v>
+      </c>
+      <c r="G68">
         <v>13</v>
       </c>
-      <c r="F68">
-        <v>18</v>
-      </c>
-      <c r="G68">
-        <v>15.5</v>
-      </c>
       <c r="H68" s="1">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
         <v>15</v>
       </c>
       <c r="E69">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F69">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G69">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="H69" s="1">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E70">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F70">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G70">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="H70" s="1">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E71">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F71">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G71">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="H71" s="1">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E72">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F72">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G72">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="H72" s="1">
-        <v>67</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E73">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F73">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G73">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="H73" s="1">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E74">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F74">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G74">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="H74" s="1">
-        <v>78</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
         <v>19</v>
       </c>
       <c r="E75">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F75">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G75">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H75" s="1">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E76">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F76">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G76">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H76" s="1">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E77">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F77">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G77">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H77" s="1">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E78">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F78">
-        <v>19</v>
-      </c>
-      <c r="G78">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>72</v>
       </c>
       <c r="H78" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E79">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F79">
-        <v>10</v>
-      </c>
-      <c r="G79" t="s">
-        <v>72</v>
+        <v>18</v>
+      </c>
+      <c r="G79">
+        <v>15</v>
       </c>
       <c r="H79" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E80">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F80">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G80">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="H80" s="1">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B81" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
         <v>19</v>
       </c>
       <c r="E81">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F81">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G81">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="H81" s="1">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B82" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E82">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F82">
-        <v>23</v>
-      </c>
-      <c r="G82">
-        <v>19.5</v>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>72</v>
       </c>
       <c r="H82" s="1">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E83">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F83">
-        <v>12</v>
-      </c>
-      <c r="G83" t="s">
-        <v>72</v>
+        <v>24</v>
+      </c>
+      <c r="G83">
+        <v>21</v>
       </c>
       <c r="H83" s="1">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B84" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E84">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>24</v>
-      </c>
-      <c r="G84">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>72</v>
       </c>
       <c r="H84" s="1">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B85" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85" t="s">
-        <v>72</v>
+        <v>19</v>
+      </c>
+      <c r="G85">
+        <v>16</v>
       </c>
       <c r="H85" s="1">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B86" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D86" t="s">
         <v>15</v>
       </c>
       <c r="E86">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F86">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G86">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H86" s="1">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
         <v>15</v>
       </c>
       <c r="E87">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F87">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G87">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H87" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="B88" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E88">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F88">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G88">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H88" s="1">
-        <v>64</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B89" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
         <v>19</v>
       </c>
       <c r="E89">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F89">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G89">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="H89" s="1">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B90" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
         <v>19</v>
       </c>
       <c r="E90">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F90">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G90">
-        <v>16.5</v>
+        <v>21.5</v>
       </c>
       <c r="H90" s="1">
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B91" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E91">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F91">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G91">
-        <v>21.5</v>
+        <v>15</v>
       </c>
       <c r="H91" s="1">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
         <v>15</v>
       </c>
       <c r="E92">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F92">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G92">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="H92" s="1">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93">
         <v>13</v>
       </c>
-      <c r="C93" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" t="s">
-        <v>15</v>
-      </c>
-      <c r="E93">
-        <v>10</v>
-      </c>
       <c r="F93">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G93">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="H93" s="1">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C94" t="s">
         <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E94">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F94">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G94">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H94" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
         <v>15</v>
       </c>
       <c r="E95">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F95">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G95">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="H95" s="1">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96">
+        <v>14</v>
+      </c>
+      <c r="F96">
         <v>21</v>
       </c>
-      <c r="B96" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" t="s">
-        <v>15</v>
-      </c>
-      <c r="E96">
-        <v>11</v>
-      </c>
-      <c r="F96">
-        <v>16</v>
-      </c>
       <c r="G96">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="H96" s="1">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C97" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
         <v>19</v>
       </c>
       <c r="E97">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F97">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G97">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="H97" s="1">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B98" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E98">
+        <v>10</v>
+      </c>
+      <c r="F98">
+        <v>16</v>
+      </c>
+      <c r="G98">
         <v>13</v>
       </c>
-      <c r="F98">
-        <v>18</v>
-      </c>
-      <c r="G98">
-        <v>15.5</v>
-      </c>
       <c r="H98" s="1">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B99" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
         <v>15</v>
       </c>
       <c r="E99">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F99">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G99">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="H99" s="1">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E100">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F100">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G100">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="H100" s="1">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E101">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F101">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G101">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="H101" s="1">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E102">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F102">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G102">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="H102" s="1">
-        <v>67</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E103">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F103">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G103">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="H103" s="1">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E104">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F104">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G104">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="H104" s="1">
-        <v>78</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D105" t="s">
         <v>19</v>
       </c>
       <c r="E105">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F105">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G105">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H105" s="1">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B106" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E106">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F106">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G106">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H106" s="1">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E107">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F107">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G107">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H107" s="1">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B108" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C108" t="s">
         <v>18</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E108">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F108">
-        <v>19</v>
-      </c>
-      <c r="G108">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>72</v>
       </c>
       <c r="H108" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>46</v>
-      </c>
-      <c r="B109" t="s">
-        <v>47</v>
-      </c>
-      <c r="C109" t="s">
-        <v>18</v>
-      </c>
-      <c r="D109" t="s">
-        <v>48</v>
-      </c>
-      <c r="E109">
-        <v>5</v>
-      </c>
-      <c r="F109">
-        <v>10</v>
-      </c>
-      <c r="G109" t="s">
-        <v>72</v>
-      </c>
-      <c r="H109" s="1">
-        <v>0</v>
-      </c>
+      <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H111" s="1"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H112" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
